--- a/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,14 +125,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,18 +155,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -173,7 +177,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -184,7 +188,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -195,7 +199,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -206,7 +210,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -217,7 +221,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -228,8 +232,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -239,8 +243,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -250,8 +254,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -261,8 +265,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -272,8 +276,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -283,8 +287,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -294,8 +298,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -305,8 +309,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -316,8 +320,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -327,8 +331,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -338,8 +342,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -349,8 +353,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B19">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="27">
   <si>
     <t>Row</t>
   </si>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -127,16 +127,52 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,209 +191,209 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-0.64365691826914784</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-0.73306600376966546</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.25567047870162707</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-0.49024892940747389</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-0.45276723073732228</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.30027566638045844</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.4176294025220848</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>-0.13279277492446351</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.26882819376633194</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.24272154879670271</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.36146099292739109</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.40173077737204554</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.0082978031163261079</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>-0.29784373368653139</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>-0.30090737181108551</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>-0.28870227443576901</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.44003202845268063</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-0.13548426709168027</v>
       </c>
       <c r="C19">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Tidjanibacter_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -37,9 +37,6 @@
     <t>even_MAG-GUT12049.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT12063.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT12082.fa</t>
   </si>
   <si>
@@ -61,21 +58,6 @@
     <t>even_MAG-GUT22830.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT2841.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT2873.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT36772.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT36799.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT56345.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT71577.fa</t>
   </si>
   <si>
@@ -83,12 +65,6 @@
   </si>
   <si>
     <t>even_MAG-GUT77597.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT77633.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT85906.fa</t>
   </si>
   <si>
     <t>1-s__Tidjanibacter inops_A</t>
@@ -115,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,54 +101,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -191,18 +127,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>26</v>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -213,7 +149,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -224,7 +160,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -235,7 +171,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -246,7 +182,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -257,7 +193,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -268,8 +204,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0.4176294025220848</v>
@@ -279,8 +215,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
-        <v>9</v>
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-0.13279277492446351</v>
@@ -290,8 +226,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>10</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.26882819376633194</v>
@@ -301,8 +237,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>11</v>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0.24272154879670271</v>
@@ -312,8 +248,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>12</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.36146099292739109</v>
@@ -323,8 +259,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>13</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.40173077737204554</v>
@@ -334,8 +270,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
-        <v>14</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0.0082978031163261079</v>
@@ -345,123 +281,35 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.29784373368653139</v>
+        <v>-0.28870227443576901</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>19</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.30090737181108551</v>
+        <v>0.44003202845268063</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>20</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.28870227443576901</v>
+        <v>-0.13548426709168027</v>
       </c>
       <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>0.44003202845268063</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>-0.13548426709168027</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
         <v>1</v>
       </c>
     </row>
